--- a/pred_ohlcv/54/2019-10-08 INS ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-08 INS ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H288"/>
+  <dimension ref="A1:I268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,7 +413,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C2" t="n">
         <v>244</v>
@@ -417,15 +422,18 @@
         <v>244</v>
       </c>
       <c r="E2" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F2" t="n">
-        <v>6081.5754</v>
+        <v>62.1639</v>
       </c>
       <c r="G2" t="n">
-        <v>238.9</v>
+        <v>238.7666666666667</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C3" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D3" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E3" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>6081.5754</v>
       </c>
       <c r="G3" t="n">
-        <v>239</v>
+        <v>238.9</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C4" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D4" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E4" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F4" t="n">
-        <v>527.2328</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>239.0333333333333</v>
+        <v>239</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C5" t="n">
         <v>244</v>
@@ -495,15 +509,18 @@
         <v>244</v>
       </c>
       <c r="E5" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F5" t="n">
-        <v>1925.0491</v>
+        <v>527.2328</v>
       </c>
       <c r="G5" t="n">
-        <v>239.1</v>
+        <v>239.0333333333333</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -515,21 +532,24 @@
         <v>244</v>
       </c>
       <c r="C6" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D6" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E6" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F6" t="n">
-        <v>15189.9984</v>
+        <v>1925.0491</v>
       </c>
       <c r="G6" t="n">
-        <v>239.1666666666667</v>
+        <v>239.1</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C7" t="n">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D7" t="n">
         <v>245</v>
       </c>
       <c r="E7" t="n">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F7" t="n">
-        <v>3.2857</v>
+        <v>15189.9984</v>
       </c>
       <c r="G7" t="n">
-        <v>239.2833333333333</v>
+        <v>239.1666666666667</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C8" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D8" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E8" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F8" t="n">
-        <v>1592.3157</v>
+        <v>3.2857</v>
       </c>
       <c r="G8" t="n">
-        <v>239.4166666666667</v>
+        <v>239.2833333333333</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -593,21 +619,24 @@
         <v>244</v>
       </c>
       <c r="C9" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D9" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E9" t="n">
         <v>244</v>
       </c>
       <c r="F9" t="n">
-        <v>1215.0541</v>
+        <v>1592.3157</v>
       </c>
       <c r="G9" t="n">
-        <v>239.5166666666667</v>
+        <v>239.4166666666667</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,10 +645,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C10" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D10" t="n">
         <v>245</v>
@@ -628,12 +657,15 @@
         <v>244</v>
       </c>
       <c r="F10" t="n">
-        <v>177</v>
+        <v>1215.0541</v>
       </c>
       <c r="G10" t="n">
-        <v>239.6333333333333</v>
+        <v>239.5166666666667</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C11" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D11" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E11" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="G11" t="n">
-        <v>239.7166666666667</v>
+        <v>239.6333333333333</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C12" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D12" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E12" t="n">
         <v>242</v>
       </c>
       <c r="F12" t="n">
-        <v>3.789</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>239.85</v>
+        <v>239.7166666666667</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C13" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D13" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E13" t="n">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>3.789</v>
       </c>
       <c r="G13" t="n">
-        <v>240</v>
+        <v>239.85</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -732,12 +773,15 @@
         <v>245</v>
       </c>
       <c r="F14" t="n">
-        <v>955.0285</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>240.15</v>
+        <v>240</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C15" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D15" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E15" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>955.0285</v>
       </c>
       <c r="G15" t="n">
-        <v>240.2833333333333</v>
+        <v>240.15</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,21 +822,24 @@
         <v>243</v>
       </c>
       <c r="C16" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D16" t="n">
         <v>243</v>
       </c>
       <c r="E16" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F16" t="n">
-        <v>6132.3644</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>240.3833333333333</v>
+        <v>240.2833333333333</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,12 +860,15 @@
         <v>242</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>6132.3644</v>
       </c>
       <c r="G17" t="n">
-        <v>240.45</v>
+        <v>240.3833333333333</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -827,21 +880,24 @@
         <v>243</v>
       </c>
       <c r="C18" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D18" t="n">
         <v>243</v>
       </c>
       <c r="E18" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>240.5833333333333</v>
+        <v>240.45</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,7 +906,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C19" t="n">
         <v>243</v>
@@ -859,15 +915,18 @@
         <v>243</v>
       </c>
       <c r="E19" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F19" t="n">
-        <v>1367.1256</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>240.6833333333333</v>
+        <v>240.5833333333333</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -879,21 +938,24 @@
         <v>242</v>
       </c>
       <c r="C20" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D20" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E20" t="n">
         <v>242</v>
       </c>
       <c r="F20" t="n">
-        <v>1916.2364</v>
+        <v>1367.1256</v>
       </c>
       <c r="G20" t="n">
-        <v>240.8</v>
+        <v>240.6833333333333</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -911,15 +973,18 @@
         <v>242</v>
       </c>
       <c r="E21" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F21" t="n">
-        <v>19757.6961</v>
+        <v>1916.2364</v>
       </c>
       <c r="G21" t="n">
-        <v>240.8833333333333</v>
+        <v>240.8</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C22" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D22" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E22" t="n">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>19757.6961</v>
       </c>
       <c r="G22" t="n">
-        <v>240.9833333333333</v>
+        <v>240.8833333333333</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C23" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D23" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E23" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F23" t="n">
-        <v>261.87</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0666666666667</v>
+        <v>240.9833333333333</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C24" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D24" t="n">
         <v>242</v>
       </c>
       <c r="E24" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F24" t="n">
-        <v>3917.7758</v>
+        <v>261.87</v>
       </c>
       <c r="G24" t="n">
-        <v>241.1166666666667</v>
+        <v>241.0666666666667</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1009,21 +1083,24 @@
         <v>242</v>
       </c>
       <c r="C25" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D25" t="n">
         <v>242</v>
       </c>
       <c r="E25" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>3917.7758</v>
       </c>
       <c r="G25" t="n">
-        <v>241.2</v>
+        <v>241.1166666666667</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,7 +1109,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C26" t="n">
         <v>242</v>
@@ -1041,15 +1118,18 @@
         <v>242</v>
       </c>
       <c r="E26" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F26" t="n">
-        <v>1091</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>241.2833333333333</v>
+        <v>241.2</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,7 +1138,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C27" t="n">
         <v>242</v>
@@ -1067,15 +1147,18 @@
         <v>242</v>
       </c>
       <c r="E27" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F27" t="n">
-        <v>163</v>
+        <v>1091</v>
       </c>
       <c r="G27" t="n">
-        <v>241.3666666666667</v>
+        <v>241.2833333333333</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1096,12 +1179,15 @@
         <v>242</v>
       </c>
       <c r="F28" t="n">
-        <v>1008.4</v>
+        <v>163</v>
       </c>
       <c r="G28" t="n">
-        <v>241.45</v>
+        <v>241.3666666666667</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C29" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D29" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E29" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F29" t="n">
-        <v>1777</v>
+        <v>1008.4</v>
       </c>
       <c r="G29" t="n">
-        <v>241.5166666666667</v>
+        <v>241.45</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C30" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D30" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E30" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>1777</v>
       </c>
       <c r="G30" t="n">
-        <v>241.6333333333333</v>
+        <v>241.5166666666667</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,12 +1266,15 @@
         <v>242</v>
       </c>
       <c r="F31" t="n">
-        <v>2032</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7166666666667</v>
+        <v>241.6333333333333</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1200,12 +1295,15 @@
         <v>242</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>2032</v>
       </c>
       <c r="G32" t="n">
-        <v>241.7666666666667</v>
+        <v>241.7166666666667</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,12 +1324,15 @@
         <v>242</v>
       </c>
       <c r="F33" t="n">
-        <v>10721.0707</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>241.85</v>
+        <v>241.7666666666667</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C34" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D34" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E34" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>10721.0707</v>
       </c>
       <c r="G34" t="n">
-        <v>241.9166666666667</v>
+        <v>241.85</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,12 +1382,15 @@
         <v>243</v>
       </c>
       <c r="F35" t="n">
-        <v>366.93</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>242</v>
+        <v>241.9166666666667</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C36" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D36" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E36" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F36" t="n">
-        <v>623</v>
+        <v>366.93</v>
       </c>
       <c r="G36" t="n">
-        <v>242.0666666666667</v>
+        <v>242</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C37" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D37" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E37" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>623</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1333333333333</v>
+        <v>242.0666666666667</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C38" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D38" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E38" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F38" t="n">
-        <v>516</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>242.1833333333333</v>
+        <v>242.1333333333333</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C39" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D39" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E39" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F39" t="n">
-        <v>1022.5507</v>
+        <v>516</v>
       </c>
       <c r="G39" t="n">
-        <v>242.2666666666667</v>
+        <v>242.1833333333333</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C40" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D40" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E40" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F40" t="n">
-        <v>198</v>
+        <v>1022.5507</v>
       </c>
       <c r="G40" t="n">
-        <v>242.3166666666667</v>
+        <v>242.2666666666667</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C41" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D41" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E41" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="G41" t="n">
-        <v>242.4</v>
+        <v>242.3166666666667</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C42" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D42" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E42" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F42" t="n">
-        <v>131.8672</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>242.4333333333333</v>
+        <v>242.4</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C43" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D43" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E43" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>131.8672</v>
       </c>
       <c r="G43" t="n">
-        <v>242.5</v>
+        <v>242.4333333333333</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C44" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D44" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E44" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F44" t="n">
-        <v>2629</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>242.55</v>
+        <v>242.5</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C45" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D45" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E45" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F45" t="n">
-        <v>2167.8672</v>
+        <v>2629</v>
       </c>
       <c r="G45" t="n">
-        <v>242.5833333333333</v>
+        <v>242.55</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C46" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D46" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E46" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>2167.8672</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6333333333333</v>
+        <v>242.5833333333333</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1590,12 +1730,15 @@
         <v>242</v>
       </c>
       <c r="F47" t="n">
-        <v>41.0781</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>242.6833333333333</v>
+        <v>242.6333333333333</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1616,12 +1759,15 @@
         <v>242</v>
       </c>
       <c r="F48" t="n">
-        <v>141.76</v>
+        <v>41.0781</v>
       </c>
       <c r="G48" t="n">
-        <v>242.7166666666667</v>
+        <v>242.6833333333333</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C49" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D49" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E49" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>141.76</v>
       </c>
       <c r="G49" t="n">
-        <v>242.7666666666667</v>
+        <v>242.7166666666667</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C50" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D50" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E50" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F50" t="n">
-        <v>1041.5296</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>242.7666666666667</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>242</v>
       </c>
       <c r="F51" t="n">
-        <v>1435</v>
+        <v>1041.5296</v>
       </c>
       <c r="G51" t="n">
-        <v>242.7833333333333</v>
+        <v>242.7666666666667</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1720,12 +1875,15 @@
         <v>242</v>
       </c>
       <c r="F52" t="n">
-        <v>1192.6624</v>
+        <v>1435</v>
       </c>
       <c r="G52" t="n">
-        <v>242.7666666666667</v>
+        <v>242.7833333333333</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1746,12 +1904,15 @@
         <v>242</v>
       </c>
       <c r="F53" t="n">
-        <v>154.93</v>
+        <v>1192.6624</v>
       </c>
       <c r="G53" t="n">
-        <v>242.75</v>
+        <v>242.7666666666667</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,12 +1933,15 @@
         <v>242</v>
       </c>
       <c r="F54" t="n">
-        <v>1443</v>
+        <v>154.93</v>
       </c>
       <c r="G54" t="n">
-        <v>242.7333333333333</v>
+        <v>242.75</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,7 +1950,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C55" t="n">
         <v>242</v>
@@ -1795,15 +1959,18 @@
         <v>242</v>
       </c>
       <c r="E55" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F55" t="n">
-        <v>553</v>
+        <v>1443</v>
       </c>
       <c r="G55" t="n">
-        <v>242.7166666666667</v>
+        <v>242.7333333333333</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1815,21 +1982,24 @@
         <v>241</v>
       </c>
       <c r="C56" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D56" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E56" t="n">
         <v>241</v>
       </c>
       <c r="F56" t="n">
-        <v>659.6900000000001</v>
+        <v>553</v>
       </c>
       <c r="G56" t="n">
-        <v>242.6833333333333</v>
+        <v>242.7166666666667</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C57" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D57" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E57" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>659.6900000000001</v>
       </c>
       <c r="G57" t="n">
         <v>242.6833333333333</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C58" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D58" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E58" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F58" t="n">
-        <v>126.1322</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>242.6666666666667</v>
+        <v>242.6833333333333</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1902,12 +2078,15 @@
         <v>242</v>
       </c>
       <c r="F59" t="n">
-        <v>4</v>
+        <v>126.1322</v>
       </c>
       <c r="G59" t="n">
-        <v>242.65</v>
+        <v>242.6666666666667</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C60" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D60" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E60" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G60" t="n">
-        <v>242.6333333333333</v>
+        <v>242.65</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C61" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D61" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E61" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F61" t="n">
-        <v>359</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>242.5833333333333</v>
+        <v>242.6333333333333</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1980,12 +2165,15 @@
         <v>241</v>
       </c>
       <c r="F62" t="n">
-        <v>1691.4632</v>
+        <v>359</v>
       </c>
       <c r="G62" t="n">
-        <v>242.5333333333333</v>
+        <v>242.5833333333333</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2006,12 +2194,15 @@
         <v>241</v>
       </c>
       <c r="F63" t="n">
-        <v>670</v>
+        <v>1691.4632</v>
       </c>
       <c r="G63" t="n">
-        <v>242.4666666666667</v>
+        <v>242.5333333333333</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C64" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D64" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E64" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F64" t="n">
-        <v>1644.8532</v>
+        <v>670</v>
       </c>
       <c r="G64" t="n">
-        <v>242.4</v>
+        <v>242.4666666666667</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2049,21 +2243,24 @@
         <v>240</v>
       </c>
       <c r="C65" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D65" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E65" t="n">
         <v>240</v>
       </c>
       <c r="F65" t="n">
-        <v>1457.4757</v>
+        <v>1644.8532</v>
       </c>
       <c r="G65" t="n">
-        <v>242.35</v>
+        <v>242.4</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>240</v>
+      </c>
+      <c r="C66" t="n">
         <v>241</v>
       </c>
-      <c r="C66" t="n">
-        <v>242</v>
-      </c>
       <c r="D66" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E66" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F66" t="n">
-        <v>10867.05</v>
+        <v>1457.4757</v>
       </c>
       <c r="G66" t="n">
         <v>242.35</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,7 +2298,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C67" t="n">
         <v>242</v>
@@ -2107,15 +2307,18 @@
         <v>242</v>
       </c>
       <c r="E67" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F67" t="n">
-        <v>725</v>
+        <v>10867.05</v>
       </c>
       <c r="G67" t="n">
-        <v>242.3</v>
+        <v>242.35</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2136,12 +2339,15 @@
         <v>242</v>
       </c>
       <c r="F68" t="n">
-        <v>2172.3318</v>
+        <v>725</v>
       </c>
       <c r="G68" t="n">
-        <v>242.2333333333333</v>
+        <v>242.3</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>242</v>
       </c>
       <c r="F69" t="n">
-        <v>940</v>
+        <v>2172.3318</v>
       </c>
       <c r="G69" t="n">
-        <v>242.2</v>
+        <v>242.2333333333333</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>242</v>
       </c>
       <c r="F70" t="n">
-        <v>1579</v>
+        <v>940</v>
       </c>
       <c r="G70" t="n">
-        <v>242.15</v>
+        <v>242.2</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>242</v>
       </c>
       <c r="F71" t="n">
-        <v>41.3223</v>
+        <v>1579</v>
       </c>
       <c r="G71" t="n">
         <v>242.15</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2240,12 +2455,15 @@
         <v>242</v>
       </c>
       <c r="F72" t="n">
-        <v>1667.8327</v>
+        <v>41.3223</v>
       </c>
       <c r="G72" t="n">
-        <v>242.1166666666667</v>
+        <v>242.15</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,12 +2484,15 @@
         <v>242</v>
       </c>
       <c r="F73" t="n">
-        <v>3335.159</v>
+        <v>1667.8327</v>
       </c>
       <c r="G73" t="n">
-        <v>242.0666666666667</v>
+        <v>242.1166666666667</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C74" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D74" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E74" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F74" t="n">
-        <v>318.6629</v>
+        <v>3335.159</v>
       </c>
       <c r="G74" t="n">
-        <v>242</v>
+        <v>242.0666666666667</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,12 +2542,15 @@
         <v>241</v>
       </c>
       <c r="F75" t="n">
-        <v>1681.3371</v>
+        <v>318.6629</v>
       </c>
       <c r="G75" t="n">
-        <v>241.9666666666667</v>
+        <v>242</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>241</v>
       </c>
       <c r="F76" t="n">
-        <v>500</v>
+        <v>1681.3371</v>
       </c>
       <c r="G76" t="n">
-        <v>241.95</v>
+        <v>241.9666666666667</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2373,9 +2603,12 @@
         <v>500</v>
       </c>
       <c r="G77" t="n">
-        <v>241.9333333333333</v>
+        <v>241.95</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2399,9 +2632,12 @@
         <v>500</v>
       </c>
       <c r="G78" t="n">
-        <v>241.9</v>
+        <v>241.9333333333333</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2422,12 +2658,15 @@
         <v>241</v>
       </c>
       <c r="F79" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G79" t="n">
-        <v>241.8666666666667</v>
+        <v>241.9</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2448,12 +2687,15 @@
         <v>241</v>
       </c>
       <c r="F80" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="G80" t="n">
-        <v>241.85</v>
+        <v>241.8666666666667</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C81" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D81" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E81" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="G81" t="n">
         <v>241.85</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C82" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D82" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E82" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F82" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>241.8166666666667</v>
+        <v>241.85</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2517,21 +2765,24 @@
         <v>241</v>
       </c>
       <c r="C83" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D83" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E83" t="n">
         <v>241</v>
       </c>
       <c r="F83" t="n">
-        <v>5993.1445</v>
+        <v>200</v>
       </c>
       <c r="G83" t="n">
         <v>241.8166666666667</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,7 +2791,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C84" t="n">
         <v>242</v>
@@ -2549,15 +2800,18 @@
         <v>242</v>
       </c>
       <c r="E84" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F84" t="n">
-        <v>3962.9999</v>
+        <v>5993.1445</v>
       </c>
       <c r="G84" t="n">
-        <v>241.85</v>
+        <v>241.8166666666667</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2569,21 +2823,24 @@
         <v>240</v>
       </c>
       <c r="C85" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D85" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E85" t="n">
         <v>240</v>
       </c>
       <c r="F85" t="n">
-        <v>350</v>
+        <v>3962.9999</v>
       </c>
       <c r="G85" t="n">
-        <v>241.8166666666667</v>
+        <v>241.85</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C86" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D86" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E86" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G86" t="n">
         <v>241.8166666666667</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C87" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D87" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E87" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F87" t="n">
-        <v>224.9515</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>241.7833333333333</v>
+        <v>241.8166666666667</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2656,12 +2919,15 @@
         <v>240</v>
       </c>
       <c r="F88" t="n">
-        <v>272.5652</v>
+        <v>224.9515</v>
       </c>
       <c r="G88" t="n">
-        <v>241.75</v>
+        <v>241.7833333333333</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2682,12 +2948,15 @@
         <v>240</v>
       </c>
       <c r="F89" t="n">
-        <v>2171</v>
+        <v>272.5652</v>
       </c>
       <c r="G89" t="n">
-        <v>241.7333333333333</v>
+        <v>241.75</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C90" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D90" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E90" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>2171</v>
       </c>
       <c r="G90" t="n">
         <v>241.7333333333333</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C91" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D91" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E91" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F91" t="n">
-        <v>6220.3852</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>241.7</v>
+        <v>241.7333333333333</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C92" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D92" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E92" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F92" t="n">
-        <v>952.6409</v>
+        <v>6220.3852</v>
       </c>
       <c r="G92" t="n">
-        <v>241.65</v>
+        <v>241.7</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C93" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D93" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E93" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>952.6409</v>
       </c>
       <c r="G93" t="n">
-        <v>241.6166666666667</v>
+        <v>241.65</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2815,9 +3096,12 @@
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>241.5666666666667</v>
+        <v>241.6166666666667</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,7 +3110,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C95" t="n">
         <v>240</v>
@@ -2835,15 +3119,18 @@
         <v>240</v>
       </c>
       <c r="E95" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F95" t="n">
-        <v>3001</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>241.5166666666667</v>
+        <v>241.5666666666667</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,7 +3139,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C96" t="n">
         <v>240</v>
@@ -2861,15 +3148,18 @@
         <v>240</v>
       </c>
       <c r="E96" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>3001</v>
       </c>
       <c r="G96" t="n">
-        <v>241.4833333333333</v>
+        <v>241.5166666666667</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C97" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D97" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E97" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F97" t="n">
-        <v>372</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>241.4166666666667</v>
+        <v>241.4833333333333</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2916,12 +3209,15 @@
         <v>239</v>
       </c>
       <c r="F98" t="n">
-        <v>681.6654</v>
+        <v>372</v>
       </c>
       <c r="G98" t="n">
-        <v>241.3666666666667</v>
+        <v>241.4166666666667</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2933,21 +3229,24 @@
         <v>239</v>
       </c>
       <c r="C99" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D99" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E99" t="n">
         <v>239</v>
       </c>
       <c r="F99" t="n">
-        <v>31</v>
+        <v>681.6654</v>
       </c>
       <c r="G99" t="n">
-        <v>241.3166666666667</v>
+        <v>241.3666666666667</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,7 +3255,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C100" t="n">
         <v>240</v>
@@ -2965,15 +3264,18 @@
         <v>240</v>
       </c>
       <c r="E100" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F100" t="n">
-        <v>1286</v>
+        <v>31</v>
       </c>
       <c r="G100" t="n">
-        <v>241.2833333333333</v>
+        <v>241.3166666666667</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C101" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D101" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E101" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F101" t="n">
-        <v>3986.4456</v>
+        <v>1286</v>
       </c>
       <c r="G101" t="n">
-        <v>241.2166666666667</v>
+        <v>241.2833333333333</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C102" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D102" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E102" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F102" t="n">
-        <v>2622.4276</v>
+        <v>3986.4456</v>
       </c>
       <c r="G102" t="n">
-        <v>241.1666666666667</v>
+        <v>241.2166666666667</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C103" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D103" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E103" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F103" t="n">
-        <v>2</v>
+        <v>2622.4276</v>
       </c>
       <c r="G103" t="n">
-        <v>241.1</v>
+        <v>241.1666666666667</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C104" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D104" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E104" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F104" t="n">
-        <v>18839.513</v>
+        <v>2</v>
       </c>
       <c r="G104" t="n">
-        <v>241.0333333333333</v>
+        <v>241.1</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C105" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D105" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E105" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F105" t="n">
-        <v>3</v>
+        <v>18839.513</v>
       </c>
       <c r="G105" t="n">
-        <v>241</v>
+        <v>241.0333333333333</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3115,21 +3432,24 @@
         <v>239</v>
       </c>
       <c r="C106" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D106" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E106" t="n">
         <v>239</v>
       </c>
       <c r="F106" t="n">
-        <v>4389</v>
+        <v>3</v>
       </c>
       <c r="G106" t="n">
-        <v>240.9666666666667</v>
+        <v>241</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3141,21 +3461,24 @@
         <v>239</v>
       </c>
       <c r="C107" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D107" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E107" t="n">
         <v>239</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>4389</v>
       </c>
       <c r="G107" t="n">
-        <v>240.9166666666667</v>
+        <v>240.9666666666667</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C108" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D108" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E108" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F108" t="n">
         <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>240.8833333333333</v>
+        <v>240.9166666666667</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C109" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D109" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E109" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F109" t="n">
-        <v>565.4245</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>240.7833333333333</v>
+        <v>240.8833333333333</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C110" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D110" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E110" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F110" t="n">
-        <v>10</v>
+        <v>565.4245</v>
       </c>
       <c r="G110" t="n">
-        <v>240.7333333333333</v>
+        <v>240.7833333333333</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C111" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D111" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E111" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F111" t="n">
-        <v>328.9299</v>
+        <v>10</v>
       </c>
       <c r="G111" t="n">
-        <v>240.6666666666667</v>
+        <v>240.7333333333333</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,12 +3615,15 @@
         <v>238</v>
       </c>
       <c r="F112" t="n">
-        <v>668.89</v>
+        <v>328.9299</v>
       </c>
       <c r="G112" t="n">
-        <v>240.6</v>
+        <v>240.6666666666667</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,12 +3644,15 @@
         <v>238</v>
       </c>
       <c r="F113" t="n">
-        <v>328.79</v>
+        <v>668.89</v>
       </c>
       <c r="G113" t="n">
-        <v>240.5333333333333</v>
+        <v>240.6</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3323,21 +3664,24 @@
         <v>238</v>
       </c>
       <c r="C114" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D114" t="n">
         <v>238</v>
       </c>
       <c r="E114" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F114" t="n">
-        <v>17372.1979</v>
+        <v>328.79</v>
       </c>
       <c r="G114" t="n">
-        <v>240.45</v>
+        <v>240.5333333333333</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3349,21 +3693,24 @@
         <v>238</v>
       </c>
       <c r="C115" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D115" t="n">
         <v>238</v>
       </c>
       <c r="E115" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>17372.1979</v>
       </c>
       <c r="G115" t="n">
-        <v>240.3833333333333</v>
+        <v>240.45</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C116" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D116" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E116" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F116" t="n">
-        <v>172</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>240.3166666666667</v>
+        <v>240.3833333333333</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3410,12 +3760,15 @@
         <v>237</v>
       </c>
       <c r="F117" t="n">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="G117" t="n">
-        <v>240.2166666666667</v>
+        <v>240.3166666666667</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C118" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D118" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E118" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="G118" t="n">
-        <v>240.15</v>
+        <v>240.2166666666667</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C119" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D119" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E119" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F119" t="n">
-        <v>859.5256000000001</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>240.0666666666667</v>
+        <v>240.15</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C120" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D120" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E120" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>859.5256000000001</v>
       </c>
       <c r="G120" t="n">
-        <v>240</v>
+        <v>240.0666666666667</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C121" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D121" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E121" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F121" t="n">
-        <v>450.9999</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>239.9333333333333</v>
+        <v>240</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3540,12 +3905,15 @@
         <v>237</v>
       </c>
       <c r="F122" t="n">
-        <v>238.85</v>
+        <v>450.9999</v>
       </c>
       <c r="G122" t="n">
-        <v>239.8666666666667</v>
+        <v>239.9333333333333</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C123" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D123" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E123" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>238.85</v>
       </c>
       <c r="G123" t="n">
-        <v>239.8166666666667</v>
+        <v>239.8666666666667</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3592,12 +3963,15 @@
         <v>238</v>
       </c>
       <c r="F124" t="n">
-        <v>84.03360000000001</v>
+        <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>239.7833333333333</v>
+        <v>239.8166666666667</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C125" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D125" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E125" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>84.03360000000001</v>
       </c>
       <c r="G125" t="n">
-        <v>239.75</v>
+        <v>239.7833333333333</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3644,12 +4021,15 @@
         <v>239</v>
       </c>
       <c r="F126" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>239.7</v>
+        <v>239.75</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C127" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D127" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E127" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F127" t="n">
-        <v>986.3867</v>
+        <v>5</v>
       </c>
       <c r="G127" t="n">
-        <v>239.6166666666667</v>
+        <v>239.7</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C128" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D128" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E128" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F128" t="n">
-        <v>2571.0717</v>
+        <v>986.3867</v>
       </c>
       <c r="G128" t="n">
-        <v>239.5166666666667</v>
+        <v>239.6166666666667</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C129" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D129" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E129" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F129" t="n">
-        <v>3</v>
+        <v>2571.0717</v>
       </c>
       <c r="G129" t="n">
-        <v>239.4333333333333</v>
+        <v>239.5166666666667</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C130" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D130" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E130" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F130" t="n">
-        <v>1121.1908</v>
+        <v>3</v>
       </c>
       <c r="G130" t="n">
-        <v>239.3333333333333</v>
+        <v>239.4333333333333</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C131" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D131" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E131" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F131" t="n">
-        <v>3</v>
+        <v>1121.1908</v>
       </c>
       <c r="G131" t="n">
-        <v>239.25</v>
+        <v>239.3333333333333</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C132" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D132" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E132" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F132" t="n">
-        <v>1500</v>
+        <v>3</v>
       </c>
       <c r="G132" t="n">
-        <v>239.15</v>
+        <v>239.25</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3826,12 +4224,15 @@
         <v>236</v>
       </c>
       <c r="F133" t="n">
-        <v>3210.9917</v>
+        <v>1500</v>
       </c>
       <c r="G133" t="n">
-        <v>239.05</v>
+        <v>239.15</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3843,21 +4244,24 @@
         <v>236</v>
       </c>
       <c r="C134" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D134" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E134" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F134" t="n">
-        <v>9444.755499999999</v>
+        <v>3210.9917</v>
       </c>
       <c r="G134" t="n">
-        <v>238.9333333333333</v>
+        <v>239.05</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C135" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D135" t="n">
         <v>237</v>
       </c>
       <c r="E135" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>9444.755499999999</v>
       </c>
       <c r="G135" t="n">
-        <v>238.8666666666667</v>
+        <v>238.9333333333333</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,7 +4299,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C136" t="n">
         <v>237</v>
@@ -3901,15 +4308,18 @@
         <v>237</v>
       </c>
       <c r="E136" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F136" t="n">
-        <v>1439.1525</v>
+        <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>238.8</v>
+        <v>238.8666666666667</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C137" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D137" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E137" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>1439.1525</v>
       </c>
       <c r="G137" t="n">
-        <v>238.75</v>
+        <v>238.8</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C138" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D138" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E138" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F138" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>238.6833333333333</v>
+        <v>238.75</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3982,12 +4398,15 @@
         <v>237</v>
       </c>
       <c r="F139" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G139" t="n">
-        <v>238.6166666666667</v>
+        <v>238.6833333333333</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4011,9 +4430,12 @@
         <v>5</v>
       </c>
       <c r="G140" t="n">
-        <v>238.55</v>
+        <v>238.6166666666667</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C141" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D141" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E141" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G141" t="n">
-        <v>238.4833333333333</v>
+        <v>238.55</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C142" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D142" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E142" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F142" t="n">
         <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>238.45</v>
+        <v>238.4833333333333</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C143" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D143" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E143" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F143" t="n">
-        <v>1267.1456</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>238.3166666666667</v>
+        <v>238.45</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,7 +4531,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C144" t="n">
         <v>234</v>
@@ -4112,12 +4543,15 @@
         <v>234</v>
       </c>
       <c r="F144" t="n">
-        <v>707.9998000000001</v>
+        <v>1267.1456</v>
       </c>
       <c r="G144" t="n">
-        <v>238.1833333333333</v>
+        <v>238.3166666666667</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C145" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D145" t="n">
         <v>238</v>
       </c>
       <c r="E145" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>707.9998000000001</v>
       </c>
       <c r="G145" t="n">
-        <v>238.15</v>
+        <v>238.1833333333333</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C146" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D146" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E146" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F146" t="n">
-        <v>1150.0972</v>
+        <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>238.0666666666667</v>
+        <v>238.15</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4190,12 +4630,15 @@
         <v>234</v>
       </c>
       <c r="F147" t="n">
-        <v>401.9999</v>
+        <v>1150.0972</v>
       </c>
       <c r="G147" t="n">
-        <v>238.0166666666667</v>
+        <v>238.0666666666667</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,12 +4659,15 @@
         <v>234</v>
       </c>
       <c r="F148" t="n">
-        <v>146.1856</v>
+        <v>401.9999</v>
       </c>
       <c r="G148" t="n">
-        <v>237.9666666666667</v>
+        <v>238.0166666666667</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,7 +4676,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C149" t="n">
         <v>237</v>
@@ -4239,15 +4685,18 @@
         <v>237</v>
       </c>
       <c r="E149" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>146.1856</v>
       </c>
       <c r="G149" t="n">
-        <v>237.9166666666667</v>
+        <v>237.9666666666667</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4259,21 +4708,24 @@
         <v>237</v>
       </c>
       <c r="C150" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D150" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E150" t="n">
         <v>237</v>
       </c>
       <c r="F150" t="n">
-        <v>1061</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>237.85</v>
+        <v>237.9166666666667</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C151" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D151" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E151" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F151" t="n">
-        <v>1</v>
+        <v>1061</v>
       </c>
       <c r="G151" t="n">
-        <v>237.8333333333333</v>
+        <v>237.85</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4320,12 +4775,15 @@
         <v>239</v>
       </c>
       <c r="F152" t="n">
-        <v>1380</v>
+        <v>1</v>
       </c>
       <c r="G152" t="n">
         <v>237.8333333333333</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4337,21 +4795,24 @@
         <v>239</v>
       </c>
       <c r="C153" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D153" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E153" t="n">
         <v>239</v>
       </c>
       <c r="F153" t="n">
-        <v>15969.9999</v>
+        <v>1380</v>
       </c>
       <c r="G153" t="n">
-        <v>237.85</v>
+        <v>237.8333333333333</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>239</v>
+      </c>
+      <c r="C154" t="n">
         <v>241</v>
       </c>
-      <c r="C154" t="n">
-        <v>245</v>
-      </c>
       <c r="D154" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E154" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F154" t="n">
-        <v>46891.2079</v>
+        <v>15969.9999</v>
       </c>
       <c r="G154" t="n">
-        <v>237.9333333333333</v>
+        <v>237.85</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,7 +4850,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C155" t="n">
         <v>245</v>
@@ -4395,15 +4859,18 @@
         <v>245</v>
       </c>
       <c r="E155" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F155" t="n">
-        <v>1292</v>
+        <v>46891.2079</v>
       </c>
       <c r="G155" t="n">
-        <v>238.0166666666667</v>
+        <v>237.9333333333333</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4424,13 +4891,16 @@
         <v>245</v>
       </c>
       <c r="F156" t="n">
-        <v>7649.0974</v>
+        <v>1292</v>
       </c>
       <c r="G156" t="n">
-        <v>238.1</v>
+        <v>238.0166666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -4441,22 +4911,25 @@
         <v>245</v>
       </c>
       <c r="C157" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D157" t="n">
         <v>245</v>
       </c>
       <c r="E157" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F157" t="n">
-        <v>5576.1236</v>
+        <v>7649.0974</v>
       </c>
       <c r="G157" t="n">
-        <v>238.1333333333333</v>
+        <v>238.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -4467,21 +4940,24 @@
         <v>245</v>
       </c>
       <c r="C158" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D158" t="n">
         <v>245</v>
       </c>
       <c r="E158" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F158" t="n">
-        <v>874</v>
+        <v>5576.1236</v>
       </c>
       <c r="G158" t="n">
-        <v>238.2333333333333</v>
+        <v>238.1333333333333</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4493,21 +4969,24 @@
         <v>245</v>
       </c>
       <c r="C159" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D159" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E159" t="n">
         <v>245</v>
       </c>
       <c r="F159" t="n">
-        <v>1882.5978</v>
+        <v>874</v>
       </c>
       <c r="G159" t="n">
-        <v>238.3333333333333</v>
+        <v>238.2333333333333</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C160" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D160" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E160" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F160" t="n">
-        <v>11667.9261</v>
+        <v>1882.5978</v>
       </c>
       <c r="G160" t="n">
-        <v>238.5</v>
+        <v>238.3333333333333</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C161" t="n">
         <v>250</v>
       </c>
       <c r="D161" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E161" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F161" t="n">
-        <v>6852.2746</v>
+        <v>11667.9261</v>
       </c>
       <c r="G161" t="n">
-        <v>238.6833333333333</v>
+        <v>238.5</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
+        <v>248</v>
+      </c>
+      <c r="C162" t="n">
         <v>250</v>
       </c>
-      <c r="C162" t="n">
-        <v>252</v>
-      </c>
       <c r="D162" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E162" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F162" t="n">
-        <v>6743.6295</v>
+        <v>6852.2746</v>
       </c>
       <c r="G162" t="n">
-        <v>238.9166666666667</v>
+        <v>238.6833333333333</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,25 +5082,28 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C163" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D163" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E163" t="n">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F163" t="n">
-        <v>24</v>
+        <v>6743.6295</v>
       </c>
       <c r="G163" t="n">
-        <v>239.1166666666667</v>
+        <v>238.9166666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -4620,25 +5111,28 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C164" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D164" t="n">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E164" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F164" t="n">
-        <v>23722.8193</v>
+        <v>24</v>
       </c>
       <c r="G164" t="n">
-        <v>239.3166666666667</v>
+        <v>239.1166666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -4646,25 +5140,28 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C165" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D165" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E165" t="n">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F165" t="n">
-        <v>1779.6653</v>
+        <v>23722.8193</v>
       </c>
       <c r="G165" t="n">
-        <v>239.5666666666667</v>
+        <v>239.3166666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -4684,12 +5181,15 @@
         <v>254</v>
       </c>
       <c r="F166" t="n">
-        <v>2012.2888</v>
+        <v>1779.6653</v>
       </c>
       <c r="G166" t="n">
-        <v>239.8</v>
+        <v>239.5666666666667</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4710,12 +5210,15 @@
         <v>254</v>
       </c>
       <c r="F167" t="n">
-        <v>3531</v>
+        <v>2012.2888</v>
       </c>
       <c r="G167" t="n">
-        <v>240.05</v>
+        <v>239.8</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C168" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D168" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E168" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F168" t="n">
-        <v>750</v>
+        <v>3531</v>
       </c>
       <c r="G168" t="n">
-        <v>240.2666666666667</v>
+        <v>240.05</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4753,21 +5259,24 @@
         <v>253</v>
       </c>
       <c r="C169" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D169" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E169" t="n">
         <v>253</v>
       </c>
       <c r="F169" t="n">
-        <v>3050</v>
+        <v>750</v>
       </c>
       <c r="G169" t="n">
-        <v>240.55</v>
+        <v>240.2666666666667</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
+        <v>253</v>
+      </c>
+      <c r="C170" t="n">
         <v>254</v>
       </c>
-      <c r="C170" t="n">
-        <v>255</v>
-      </c>
       <c r="D170" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E170" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F170" t="n">
-        <v>7959.7897</v>
+        <v>3050</v>
       </c>
       <c r="G170" t="n">
-        <v>240.8166666666667</v>
+        <v>240.55</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
+        <v>254</v>
+      </c>
+      <c r="C171" t="n">
         <v>255</v>
       </c>
-      <c r="C171" t="n">
-        <v>257</v>
-      </c>
       <c r="D171" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E171" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F171" t="n">
-        <v>21883.2087</v>
+        <v>7959.7897</v>
       </c>
       <c r="G171" t="n">
-        <v>241.1333333333333</v>
+        <v>240.8166666666667</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,24 +5343,27 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
+        <v>255</v>
+      </c>
+      <c r="C172" t="n">
         <v>257</v>
       </c>
-      <c r="C172" t="n">
-        <v>258</v>
-      </c>
       <c r="D172" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E172" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F172" t="n">
-        <v>11516.2964</v>
+        <v>21883.2087</v>
       </c>
       <c r="G172" t="n">
-        <v>241.4666666666667</v>
+        <v>241.1333333333333</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
+        <v>257</v>
+      </c>
+      <c r="C173" t="n">
         <v>258</v>
       </c>
-      <c r="C173" t="n">
-        <v>259</v>
-      </c>
       <c r="D173" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E173" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F173" t="n">
-        <v>29967.9667</v>
+        <v>11516.2964</v>
       </c>
       <c r="G173" t="n">
-        <v>241.8166666666667</v>
+        <v>241.4666666666667</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
+        <v>258</v>
+      </c>
+      <c r="C174" t="n">
         <v>259</v>
       </c>
-      <c r="C174" t="n">
-        <v>261</v>
-      </c>
       <c r="D174" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E174" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F174" t="n">
-        <v>20310.8156549618</v>
+        <v>29967.9667</v>
       </c>
       <c r="G174" t="n">
-        <v>242.2166666666667</v>
+        <v>241.8166666666667</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,24 +5430,27 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>259</v>
+      </c>
+      <c r="C175" t="n">
         <v>261</v>
       </c>
-      <c r="C175" t="n">
-        <v>260</v>
-      </c>
       <c r="D175" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E175" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F175" t="n">
-        <v>6958.7423</v>
+        <v>20310.8156549618</v>
       </c>
       <c r="G175" t="n">
-        <v>242.5833333333333</v>
+        <v>242.2166666666667</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,7 +5459,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C176" t="n">
         <v>260</v>
@@ -4944,12 +5471,15 @@
         <v>260</v>
       </c>
       <c r="F176" t="n">
-        <v>8125.0574</v>
+        <v>6958.7423</v>
       </c>
       <c r="G176" t="n">
-        <v>242.9666666666667</v>
+        <v>242.5833333333333</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4964,18 +5494,21 @@
         <v>260</v>
       </c>
       <c r="D177" t="n">
+        <v>261</v>
+      </c>
+      <c r="E177" t="n">
         <v>260</v>
       </c>
-      <c r="E177" t="n">
-        <v>257</v>
-      </c>
       <c r="F177" t="n">
-        <v>920</v>
+        <v>8125.0574</v>
       </c>
       <c r="G177" t="n">
-        <v>243.35</v>
+        <v>242.9666666666667</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,24 +5517,27 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C178" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D178" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E178" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F178" t="n">
-        <v>4871.3642</v>
+        <v>920</v>
       </c>
       <c r="G178" t="n">
-        <v>243.6833333333333</v>
+        <v>243.35</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,24 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C179" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D179" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E179" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F179" t="n">
-        <v>5471.0769</v>
+        <v>4871.3642</v>
       </c>
       <c r="G179" t="n">
-        <v>244.0666666666667</v>
+        <v>243.6833333333333</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,7 +5575,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C180" t="n">
         <v>260</v>
@@ -5045,15 +5584,18 @@
         <v>260</v>
       </c>
       <c r="E180" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F180" t="n">
-        <v>2517.9356</v>
+        <v>5471.0769</v>
       </c>
       <c r="G180" t="n">
-        <v>244.4166666666667</v>
+        <v>244.0666666666667</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5062,24 +5604,27 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C181" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D181" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E181" t="n">
         <v>258</v>
       </c>
       <c r="F181" t="n">
-        <v>25199.2018</v>
+        <v>2517.9356</v>
       </c>
       <c r="G181" t="n">
-        <v>244.8333333333333</v>
+        <v>244.4166666666667</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5091,21 +5636,24 @@
         <v>259</v>
       </c>
       <c r="C182" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D182" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E182" t="n">
         <v>258</v>
       </c>
       <c r="F182" t="n">
-        <v>6829.9739</v>
+        <v>25199.2018</v>
       </c>
       <c r="G182" t="n">
-        <v>245.1833333333333</v>
+        <v>244.8333333333333</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,10 +5662,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
+        <v>259</v>
+      </c>
+      <c r="C183" t="n">
         <v>258</v>
-      </c>
-      <c r="C183" t="n">
-        <v>260</v>
       </c>
       <c r="D183" t="n">
         <v>261</v>
@@ -5126,12 +5674,15 @@
         <v>258</v>
       </c>
       <c r="F183" t="n">
-        <v>12.0195</v>
+        <v>6829.9739</v>
       </c>
       <c r="G183" t="n">
-        <v>245.55</v>
+        <v>245.1833333333333</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,24 +5691,27 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C184" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D184" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E184" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F184" t="n">
-        <v>4447.9494</v>
+        <v>12.0195</v>
       </c>
       <c r="G184" t="n">
-        <v>245.9</v>
+        <v>245.55</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C185" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D185" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E185" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F185" t="n">
-        <v>172.4137</v>
+        <v>4447.9494</v>
       </c>
       <c r="G185" t="n">
-        <v>246.1666666666667</v>
+        <v>245.9</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C186" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D186" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E186" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F186" t="n">
-        <v>1</v>
+        <v>172.4137</v>
       </c>
       <c r="G186" t="n">
-        <v>246.4666666666667</v>
+        <v>246.1666666666667</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5218,24 +5778,27 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C187" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D187" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E187" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F187" t="n">
-        <v>7308.7408</v>
+        <v>1</v>
       </c>
       <c r="G187" t="n">
-        <v>246.8166666666667</v>
+        <v>246.4666666666667</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5247,21 +5810,24 @@
         <v>258</v>
       </c>
       <c r="C188" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D188" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E188" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F188" t="n">
-        <v>16968.6112</v>
+        <v>7308.7408</v>
       </c>
       <c r="G188" t="n">
-        <v>247.1333333333333</v>
+        <v>246.8166666666667</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,24 +5836,27 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C189" t="n">
         <v>255</v>
       </c>
       <c r="D189" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E189" t="n">
         <v>255</v>
       </c>
       <c r="F189" t="n">
-        <v>1722.4179</v>
+        <v>16968.6112</v>
       </c>
       <c r="G189" t="n">
-        <v>247.4333333333333</v>
+        <v>247.1333333333333</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5308,12 +5877,15 @@
         <v>255</v>
       </c>
       <c r="F190" t="n">
-        <v>325.0899</v>
+        <v>1722.4179</v>
       </c>
       <c r="G190" t="n">
-        <v>247.75</v>
+        <v>247.4333333333333</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C191" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D191" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E191" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F191" t="n">
-        <v>1</v>
+        <v>325.0899</v>
       </c>
       <c r="G191" t="n">
-        <v>248.0833333333333</v>
+        <v>247.75</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5348,24 +5923,27 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C192" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D192" t="n">
         <v>257</v>
       </c>
       <c r="E192" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F192" t="n">
-        <v>1302</v>
+        <v>1</v>
       </c>
       <c r="G192" t="n">
-        <v>248.3666666666667</v>
+        <v>248.0833333333333</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5374,24 +5952,27 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C193" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D193" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E193" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F193" t="n">
-        <v>4343</v>
+        <v>1302</v>
       </c>
       <c r="G193" t="n">
-        <v>248.5833333333333</v>
+        <v>248.3666666666667</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5400,24 +5981,27 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C194" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D194" t="n">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E194" t="n">
         <v>249</v>
       </c>
       <c r="F194" t="n">
-        <v>1000</v>
+        <v>4343</v>
       </c>
       <c r="G194" t="n">
-        <v>248.85</v>
+        <v>248.5833333333333</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,24 +6010,27 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C195" t="n">
         <v>250</v>
       </c>
       <c r="D195" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E195" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F195" t="n">
-        <v>10.9131</v>
+        <v>1000</v>
       </c>
       <c r="G195" t="n">
-        <v>249.0666666666667</v>
+        <v>248.85</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5452,24 +6039,27 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C196" t="n">
         <v>250</v>
       </c>
       <c r="D196" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E196" t="n">
         <v>250</v>
       </c>
       <c r="F196" t="n">
-        <v>10</v>
+        <v>10.9131</v>
       </c>
       <c r="G196" t="n">
-        <v>249.2833333333333</v>
+        <v>249.0666666666667</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5481,21 +6071,24 @@
         <v>250</v>
       </c>
       <c r="C197" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D197" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E197" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F197" t="n">
-        <v>3293.8053</v>
+        <v>10</v>
       </c>
       <c r="G197" t="n">
-        <v>249.55</v>
+        <v>249.2833333333333</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5504,24 +6097,27 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C198" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D198" t="n">
         <v>254</v>
       </c>
       <c r="E198" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F198" t="n">
-        <v>2456.7305</v>
+        <v>3293.8053</v>
       </c>
       <c r="G198" t="n">
-        <v>249.8166666666667</v>
+        <v>249.55</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5533,7 +6129,7 @@
         <v>253</v>
       </c>
       <c r="C199" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D199" t="n">
         <v>254</v>
@@ -5542,12 +6138,15 @@
         <v>253</v>
       </c>
       <c r="F199" t="n">
-        <v>1000</v>
+        <v>2456.7305</v>
       </c>
       <c r="G199" t="n">
-        <v>250.1</v>
+        <v>249.8166666666667</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5556,24 +6155,27 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
+        <v>253</v>
+      </c>
+      <c r="C200" t="n">
         <v>254</v>
       </c>
-      <c r="C200" t="n">
-        <v>255</v>
-      </c>
       <c r="D200" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E200" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F200" t="n">
-        <v>4019</v>
+        <v>1000</v>
       </c>
       <c r="G200" t="n">
-        <v>250.4</v>
+        <v>250.1</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5582,24 +6184,27 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
+        <v>254</v>
+      </c>
+      <c r="C201" t="n">
         <v>255</v>
       </c>
-      <c r="C201" t="n">
-        <v>256</v>
-      </c>
       <c r="D201" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E201" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F201" t="n">
-        <v>5666.362</v>
+        <v>4019</v>
       </c>
       <c r="G201" t="n">
-        <v>250.7</v>
+        <v>250.4</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5608,7 +6213,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C202" t="n">
         <v>256</v>
@@ -5617,15 +6222,18 @@
         <v>256</v>
       </c>
       <c r="E202" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F202" t="n">
-        <v>634.6562</v>
+        <v>5666.362</v>
       </c>
       <c r="G202" t="n">
-        <v>250.9833333333333</v>
+        <v>250.7</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5637,21 +6245,24 @@
         <v>256</v>
       </c>
       <c r="C203" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D203" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E203" t="n">
         <v>256</v>
       </c>
       <c r="F203" t="n">
-        <v>10898.4201</v>
+        <v>634.6562</v>
       </c>
       <c r="G203" t="n">
-        <v>251.3666666666667</v>
+        <v>250.9833333333333</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5663,21 +6274,24 @@
         <v>256</v>
       </c>
       <c r="C204" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D204" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E204" t="n">
         <v>256</v>
       </c>
       <c r="F204" t="n">
-        <v>3568.1463</v>
+        <v>10898.4201</v>
       </c>
       <c r="G204" t="n">
-        <v>251.7333333333333</v>
+        <v>251.3666666666667</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5689,21 +6303,24 @@
         <v>256</v>
       </c>
       <c r="C205" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D205" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E205" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F205" t="n">
-        <v>852.5738</v>
+        <v>3568.1463</v>
       </c>
       <c r="G205" t="n">
-        <v>252.05</v>
+        <v>251.7333333333333</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5712,24 +6329,27 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C206" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D206" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E206" t="n">
         <v>254</v>
       </c>
       <c r="F206" t="n">
-        <v>1558.1578</v>
+        <v>852.5738</v>
       </c>
       <c r="G206" t="n">
-        <v>252.3333333333333</v>
+        <v>252.05</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5750,12 +6370,15 @@
         <v>254</v>
       </c>
       <c r="F207" t="n">
-        <v>1471.3558</v>
+        <v>1558.1578</v>
       </c>
       <c r="G207" t="n">
-        <v>252.6166666666667</v>
+        <v>252.3333333333333</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5764,24 +6387,27 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C208" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D208" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E208" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F208" t="n">
-        <v>42</v>
+        <v>1471.3558</v>
       </c>
       <c r="G208" t="n">
-        <v>252.9333333333333</v>
+        <v>252.6166666666667</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5790,24 +6416,27 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C209" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D209" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E209" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F209" t="n">
-        <v>1656</v>
+        <v>42</v>
       </c>
       <c r="G209" t="n">
-        <v>253.2166666666667</v>
+        <v>252.9333333333333</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5825,15 +6454,18 @@
         <v>254</v>
       </c>
       <c r="E210" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F210" t="n">
-        <v>15183.644</v>
+        <v>1656</v>
       </c>
       <c r="G210" t="n">
-        <v>253.4833333333333</v>
+        <v>253.2166666666667</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5842,24 +6474,27 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C211" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D211" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E211" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F211" t="n">
-        <v>1795.8224</v>
+        <v>15183.644</v>
       </c>
       <c r="G211" t="n">
-        <v>253.7166666666667</v>
+        <v>253.4833333333333</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5868,24 +6503,27 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C212" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D212" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E212" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F212" t="n">
-        <v>1228</v>
+        <v>1795.8224</v>
       </c>
       <c r="G212" t="n">
-        <v>253.9666666666667</v>
+        <v>253.7166666666667</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5894,7 +6532,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C213" t="n">
         <v>254</v>
@@ -5903,15 +6541,18 @@
         <v>254</v>
       </c>
       <c r="E213" t="n">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F213" t="n">
-        <v>17999.059</v>
+        <v>1228</v>
       </c>
       <c r="G213" t="n">
-        <v>254.1833333333333</v>
+        <v>253.9666666666667</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5923,21 +6564,24 @@
         <v>254</v>
       </c>
       <c r="C214" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D214" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E214" t="n">
         <v>254</v>
       </c>
       <c r="F214" t="n">
-        <v>1149.6023</v>
+        <v>17999.059</v>
       </c>
       <c r="G214" t="n">
-        <v>254.3833333333333</v>
+        <v>254.1833333333333</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5946,24 +6590,27 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C215" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D215" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E215" t="n">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="F215" t="n">
-        <v>6561.7184</v>
+        <v>1149.6023</v>
       </c>
       <c r="G215" t="n">
-        <v>254.4666666666667</v>
+        <v>254.3833333333333</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5975,21 +6622,24 @@
         <v>252</v>
       </c>
       <c r="C216" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D216" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E216" t="n">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F216" t="n">
-        <v>2468.6683</v>
+        <v>6561.7184</v>
       </c>
       <c r="G216" t="n">
-        <v>254.5333333333333</v>
+        <v>254.4666666666667</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5998,24 +6648,27 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C217" t="n">
         <v>249</v>
       </c>
       <c r="D217" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E217" t="n">
         <v>249</v>
       </c>
       <c r="F217" t="n">
-        <v>475.7391</v>
+        <v>2468.6683</v>
       </c>
       <c r="G217" t="n">
-        <v>254.6666666666667</v>
+        <v>254.5333333333333</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6024,24 +6677,27 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C218" t="n">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D218" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E218" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F218" t="n">
-        <v>250</v>
+        <v>475.7391</v>
       </c>
       <c r="G218" t="n">
-        <v>254.8166666666667</v>
+        <v>254.6666666666667</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6050,7 +6706,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C219" t="n">
         <v>254</v>
@@ -6059,15 +6715,18 @@
         <v>254</v>
       </c>
       <c r="E219" t="n">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F219" t="n">
-        <v>3246.9692</v>
+        <v>250</v>
       </c>
       <c r="G219" t="n">
-        <v>254.95</v>
+        <v>254.8166666666667</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6082,18 +6741,21 @@
         <v>254</v>
       </c>
       <c r="D220" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E220" t="n">
         <v>254</v>
       </c>
       <c r="F220" t="n">
-        <v>7664.8839</v>
+        <v>3246.9692</v>
       </c>
       <c r="G220" t="n">
-        <v>255.0166666666667</v>
+        <v>254.95</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6102,24 +6764,27 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C221" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D221" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E221" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F221" t="n">
-        <v>42</v>
+        <v>7664.8839</v>
       </c>
       <c r="G221" t="n">
-        <v>255.1333333333333</v>
+        <v>255.0166666666667</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6131,21 +6796,24 @@
         <v>256</v>
       </c>
       <c r="C222" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D222" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E222" t="n">
         <v>256</v>
       </c>
       <c r="F222" t="n">
-        <v>53277.582</v>
+        <v>42</v>
       </c>
       <c r="G222" t="n">
-        <v>255.2</v>
+        <v>255.1333333333333</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6154,7 +6822,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C223" t="n">
         <v>256</v>
@@ -6163,15 +6831,18 @@
         <v>256</v>
       </c>
       <c r="E223" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F223" t="n">
-        <v>1723.8537</v>
+        <v>53277.582</v>
       </c>
       <c r="G223" t="n">
-        <v>255.2833333333333</v>
+        <v>255.2</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6180,24 +6851,27 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C224" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D224" t="n">
         <v>256</v>
       </c>
       <c r="E224" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F224" t="n">
-        <v>68323.26609999999</v>
+        <v>1723.8537</v>
       </c>
       <c r="G224" t="n">
-        <v>255.35</v>
+        <v>255.2833333333333</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6206,24 +6880,27 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C225" t="n">
+        <v>254</v>
+      </c>
+      <c r="D225" t="n">
+        <v>256</v>
+      </c>
+      <c r="E225" t="n">
         <v>250</v>
       </c>
-      <c r="D225" t="n">
-        <v>251</v>
-      </c>
-      <c r="E225" t="n">
-        <v>248</v>
-      </c>
       <c r="F225" t="n">
-        <v>22639.9048</v>
+        <v>68323.26609999999</v>
       </c>
       <c r="G225" t="n">
-        <v>255.2833333333333</v>
+        <v>255.35</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6232,24 +6909,27 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
+        <v>251</v>
+      </c>
+      <c r="C226" t="n">
+        <v>250</v>
+      </c>
+      <c r="D226" t="n">
+        <v>251</v>
+      </c>
+      <c r="E226" t="n">
         <v>248</v>
       </c>
-      <c r="C226" t="n">
-        <v>254</v>
-      </c>
-      <c r="D226" t="n">
-        <v>254</v>
-      </c>
-      <c r="E226" t="n">
-        <v>247</v>
-      </c>
       <c r="F226" t="n">
-        <v>5050.8073</v>
+        <v>22639.9048</v>
       </c>
       <c r="G226" t="n">
         <v>255.2833333333333</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6258,24 +6938,27 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C227" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D227" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E227" t="n">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F227" t="n">
-        <v>3</v>
+        <v>5050.8073</v>
       </c>
       <c r="G227" t="n">
-        <v>255.3</v>
+        <v>255.2833333333333</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6284,24 +6967,27 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C228" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D228" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E228" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F228" t="n">
-        <v>402.9797</v>
+        <v>3</v>
       </c>
       <c r="G228" t="n">
-        <v>255.25</v>
+        <v>255.3</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6310,24 +6996,27 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C229" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D229" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E229" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F229" t="n">
-        <v>6994.9232</v>
+        <v>402.9797</v>
       </c>
       <c r="G229" t="n">
-        <v>255.15</v>
+        <v>255.25</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6336,24 +7025,27 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C230" t="n">
         <v>248</v>
       </c>
       <c r="D230" t="n">
+        <v>249</v>
+      </c>
+      <c r="E230" t="n">
         <v>248</v>
       </c>
-      <c r="E230" t="n">
-        <v>246</v>
-      </c>
       <c r="F230" t="n">
-        <v>7822.7117</v>
+        <v>6994.9232</v>
       </c>
       <c r="G230" t="n">
-        <v>255.0333333333333</v>
+        <v>255.15</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6362,24 +7054,27 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C231" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D231" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E231" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F231" t="n">
-        <v>10</v>
+        <v>7822.7117</v>
       </c>
       <c r="G231" t="n">
-        <v>254.9166666666667</v>
+        <v>255.0333333333333</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6388,24 +7083,27 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C232" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D232" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E232" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F232" t="n">
-        <v>7123.7554</v>
+        <v>10</v>
       </c>
       <c r="G232" t="n">
-        <v>254.7666666666667</v>
+        <v>254.9166666666667</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6417,21 +7115,24 @@
         <v>248</v>
       </c>
       <c r="C233" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D233" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E233" t="n">
         <v>248</v>
       </c>
       <c r="F233" t="n">
-        <v>466.383</v>
+        <v>7123.7554</v>
       </c>
       <c r="G233" t="n">
-        <v>254.5833333333333</v>
+        <v>254.7666666666667</v>
       </c>
       <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6440,24 +7141,27 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C234" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D234" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E234" t="n">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F234" t="n">
-        <v>2</v>
+        <v>466.383</v>
       </c>
       <c r="G234" t="n">
-        <v>254.45</v>
+        <v>254.5833333333333</v>
       </c>
       <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6466,24 +7170,27 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C235" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D235" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E235" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F235" t="n">
-        <v>1593.2157</v>
+        <v>2</v>
       </c>
       <c r="G235" t="n">
-        <v>254.25</v>
+        <v>254.45</v>
       </c>
       <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6495,21 +7202,24 @@
         <v>248</v>
       </c>
       <c r="C236" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D236" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E236" t="n">
         <v>248</v>
       </c>
       <c r="F236" t="n">
-        <v>3043.2109</v>
+        <v>1593.2157</v>
       </c>
       <c r="G236" t="n">
-        <v>254.1333333333333</v>
+        <v>254.25</v>
       </c>
       <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6518,24 +7228,27 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C237" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D237" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E237" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F237" t="n">
-        <v>237.5335</v>
+        <v>3043.2109</v>
       </c>
       <c r="G237" t="n">
-        <v>253.95</v>
+        <v>254.1333333333333</v>
       </c>
       <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6544,24 +7257,27 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C238" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D238" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E238" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F238" t="n">
-        <v>237</v>
+        <v>237.5335</v>
       </c>
       <c r="G238" t="n">
-        <v>253.7833333333333</v>
+        <v>253.95</v>
       </c>
       <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6582,12 +7298,15 @@
         <v>248</v>
       </c>
       <c r="F239" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G239" t="n">
-        <v>253.5833333333333</v>
+        <v>253.7833333333333</v>
       </c>
       <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6608,12 +7327,15 @@
         <v>248</v>
       </c>
       <c r="F240" t="n">
-        <v>130.0235</v>
+        <v>238</v>
       </c>
       <c r="G240" t="n">
-        <v>253.3833333333333</v>
+        <v>253.5833333333333</v>
       </c>
       <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6625,21 +7347,24 @@
         <v>248</v>
       </c>
       <c r="C241" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D241" t="n">
         <v>248</v>
       </c>
       <c r="E241" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F241" t="n">
-        <v>3048.2575</v>
+        <v>130.0235</v>
       </c>
       <c r="G241" t="n">
-        <v>253.1166666666667</v>
+        <v>253.3833333333333</v>
       </c>
       <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6648,24 +7373,27 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C242" t="n">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D242" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E242" t="n">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F242" t="n">
-        <v>1</v>
+        <v>3048.2575</v>
       </c>
       <c r="G242" t="n">
-        <v>252.9666666666667</v>
+        <v>253.1166666666667</v>
       </c>
       <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6674,24 +7402,27 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C243" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D243" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E243" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F243" t="n">
-        <v>2031.392</v>
+        <v>1</v>
       </c>
       <c r="G243" t="n">
-        <v>252.8</v>
+        <v>252.9666666666667</v>
       </c>
       <c r="H243" t="n">
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6700,24 +7431,27 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C244" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D244" t="n">
         <v>250</v>
       </c>
       <c r="E244" t="n">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F244" t="n">
-        <v>3223.8433</v>
+        <v>2031.392</v>
       </c>
       <c r="G244" t="n">
-        <v>252.6333333333333</v>
+        <v>252.8</v>
       </c>
       <c r="H244" t="n">
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6726,24 +7460,27 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C245" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D245" t="n">
         <v>250</v>
       </c>
       <c r="E245" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F245" t="n">
-        <v>563</v>
+        <v>3223.8433</v>
       </c>
       <c r="G245" t="n">
-        <v>252.55</v>
+        <v>252.6333333333333</v>
       </c>
       <c r="H245" t="n">
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6752,24 +7489,27 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C246" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D246" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E246" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F246" t="n">
-        <v>1647</v>
+        <v>563</v>
       </c>
       <c r="G246" t="n">
-        <v>252.45</v>
+        <v>252.55</v>
       </c>
       <c r="H246" t="n">
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6778,24 +7518,27 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C247" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D247" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E247" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F247" t="n">
-        <v>250</v>
+        <v>1647</v>
       </c>
       <c r="G247" t="n">
-        <v>252.3166666666667</v>
+        <v>252.45</v>
       </c>
       <c r="H247" t="n">
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6807,21 +7550,24 @@
         <v>250</v>
       </c>
       <c r="C248" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D248" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E248" t="n">
         <v>250</v>
       </c>
       <c r="F248" t="n">
-        <v>3744</v>
+        <v>250</v>
       </c>
       <c r="G248" t="n">
-        <v>252.25</v>
+        <v>252.3166666666667</v>
       </c>
       <c r="H248" t="n">
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6830,24 +7576,27 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C249" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D249" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E249" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F249" t="n">
-        <v>1</v>
+        <v>3744</v>
       </c>
       <c r="G249" t="n">
-        <v>252.2166666666667</v>
+        <v>252.25</v>
       </c>
       <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6856,24 +7605,27 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C250" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D250" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E250" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F250" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G250" t="n">
-        <v>252.2</v>
+        <v>252.2166666666667</v>
       </c>
       <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6882,24 +7634,27 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C251" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D251" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E251" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F251" t="n">
-        <v>2600.0357</v>
+        <v>10</v>
       </c>
       <c r="G251" t="n">
-        <v>252.0666666666667</v>
+        <v>252.2</v>
       </c>
       <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6908,24 +7663,27 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C252" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D252" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E252" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F252" t="n">
-        <v>379.392</v>
+        <v>2600.0357</v>
       </c>
       <c r="G252" t="n">
-        <v>252.0333333333333</v>
+        <v>252.0666666666667</v>
       </c>
       <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6934,24 +7692,27 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C253" t="n">
         <v>251</v>
       </c>
       <c r="D253" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E253" t="n">
         <v>251</v>
       </c>
       <c r="F253" t="n">
-        <v>1293.608</v>
+        <v>379.392</v>
       </c>
       <c r="G253" t="n">
-        <v>252.0666666666667</v>
+        <v>252.0333333333333</v>
       </c>
       <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6960,24 +7721,27 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C254" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D254" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E254" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F254" t="n">
-        <v>544.0054</v>
+        <v>1293.608</v>
       </c>
       <c r="G254" t="n">
         <v>252.0666666666667</v>
       </c>
       <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6986,24 +7750,27 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C255" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D255" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E255" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F255" t="n">
-        <v>1130</v>
+        <v>544.0054</v>
       </c>
       <c r="G255" t="n">
-        <v>252.0833333333333</v>
+        <v>252.0666666666667</v>
       </c>
       <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7012,24 +7779,27 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C256" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D256" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E256" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F256" t="n">
-        <v>58.8146</v>
+        <v>1130</v>
       </c>
       <c r="G256" t="n">
         <v>252.0833333333333</v>
       </c>
       <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7038,24 +7808,27 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C257" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D257" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E257" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F257" t="n">
-        <v>5.9099</v>
+        <v>58.8146</v>
       </c>
       <c r="G257" t="n">
-        <v>252.0333333333333</v>
+        <v>252.0833333333333</v>
       </c>
       <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7064,24 +7837,27 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C258" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D258" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E258" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F258" t="n">
-        <v>1</v>
+        <v>5.9099</v>
       </c>
       <c r="G258" t="n">
         <v>252.0333333333333</v>
       </c>
       <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7090,24 +7866,27 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C259" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D259" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E259" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F259" t="n">
-        <v>4685.496</v>
+        <v>1</v>
       </c>
       <c r="G259" t="n">
-        <v>251.95</v>
+        <v>252.0333333333333</v>
       </c>
       <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7116,24 +7895,27 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C260" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D260" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E260" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F260" t="n">
-        <v>1</v>
+        <v>4685.496</v>
       </c>
       <c r="G260" t="n">
-        <v>251.8833333333333</v>
+        <v>251.95</v>
       </c>
       <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7142,24 +7924,27 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C261" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D261" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E261" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F261" t="n">
         <v>1</v>
       </c>
       <c r="G261" t="n">
-        <v>251.8166666666667</v>
+        <v>251.8833333333333</v>
       </c>
       <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7168,24 +7953,27 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C262" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D262" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E262" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F262" t="n">
-        <v>372.8055</v>
+        <v>1</v>
       </c>
       <c r="G262" t="n">
-        <v>251.7166666666667</v>
+        <v>251.8166666666667</v>
       </c>
       <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7194,24 +7982,27 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C263" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D263" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E263" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F263" t="n">
-        <v>2571.3776</v>
+        <v>372.8055</v>
       </c>
       <c r="G263" t="n">
-        <v>251.5666666666667</v>
+        <v>251.7166666666667</v>
       </c>
       <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7220,24 +8011,27 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C264" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D264" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E264" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F264" t="n">
-        <v>423.7392</v>
+        <v>2571.3776</v>
       </c>
       <c r="G264" t="n">
-        <v>251.4666666666667</v>
+        <v>251.5666666666667</v>
       </c>
       <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7249,21 +8043,24 @@
         <v>250</v>
       </c>
       <c r="C265" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D265" t="n">
         <v>250</v>
       </c>
       <c r="E265" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F265" t="n">
-        <v>33524.9158</v>
+        <v>423.7392</v>
       </c>
       <c r="G265" t="n">
-        <v>251.2833333333333</v>
+        <v>251.4666666666667</v>
       </c>
       <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7275,21 +8072,24 @@
         <v>250</v>
       </c>
       <c r="C266" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D266" t="n">
         <v>250</v>
       </c>
       <c r="E266" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F266" t="n">
-        <v>1</v>
+        <v>33524.9158</v>
       </c>
       <c r="G266" t="n">
-        <v>251.2166666666667</v>
+        <v>251.2833333333333</v>
       </c>
       <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7298,24 +8098,27 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C267" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D267" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E267" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F267" t="n">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="G267" t="n">
-        <v>251.1833333333333</v>
+        <v>251.2166666666667</v>
       </c>
       <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7327,541 +8130,24 @@
         <v>251</v>
       </c>
       <c r="C268" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D268" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E268" t="n">
         <v>251</v>
       </c>
       <c r="F268" t="n">
-        <v>1512</v>
+        <v>250</v>
       </c>
       <c r="G268" t="n">
-        <v>251.1</v>
+        <v>251.1833333333333</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>250</v>
-      </c>
-      <c r="C269" t="n">
-        <v>252</v>
-      </c>
-      <c r="D269" t="n">
-        <v>252</v>
-      </c>
-      <c r="E269" t="n">
-        <v>250</v>
-      </c>
-      <c r="F269" t="n">
-        <v>1531</v>
-      </c>
-      <c r="G269" t="n">
-        <v>251.0666666666667</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>251</v>
-      </c>
-      <c r="C270" t="n">
-        <v>251</v>
-      </c>
-      <c r="D270" t="n">
-        <v>251</v>
-      </c>
-      <c r="E270" t="n">
-        <v>251</v>
-      </c>
-      <c r="F270" t="n">
-        <v>382.9897</v>
-      </c>
-      <c r="G270" t="n">
-        <v>251.0166666666667</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>252</v>
-      </c>
-      <c r="C271" t="n">
-        <v>250</v>
-      </c>
-      <c r="D271" t="n">
-        <v>252</v>
-      </c>
-      <c r="E271" t="n">
-        <v>250</v>
-      </c>
-      <c r="F271" t="n">
-        <v>3.3316</v>
-      </c>
-      <c r="G271" t="n">
-        <v>250.9666666666667</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>252</v>
-      </c>
-      <c r="C272" t="n">
-        <v>252</v>
-      </c>
-      <c r="D272" t="n">
-        <v>252</v>
-      </c>
-      <c r="E272" t="n">
-        <v>252</v>
-      </c>
-      <c r="F272" t="n">
-        <v>1</v>
-      </c>
-      <c r="G272" t="n">
-        <v>250.9333333333333</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>249</v>
-      </c>
-      <c r="C273" t="n">
-        <v>249</v>
-      </c>
-      <c r="D273" t="n">
-        <v>249</v>
-      </c>
-      <c r="E273" t="n">
-        <v>249</v>
-      </c>
-      <c r="F273" t="n">
-        <v>333.3333</v>
-      </c>
-      <c r="G273" t="n">
-        <v>250.85</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>248</v>
-      </c>
-      <c r="C274" t="n">
-        <v>248</v>
-      </c>
-      <c r="D274" t="n">
-        <v>248</v>
-      </c>
-      <c r="E274" t="n">
-        <v>248</v>
-      </c>
-      <c r="F274" t="n">
-        <v>277.8239</v>
-      </c>
-      <c r="G274" t="n">
-        <v>250.7</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>252</v>
-      </c>
-      <c r="C275" t="n">
-        <v>252</v>
-      </c>
-      <c r="D275" t="n">
-        <v>252</v>
-      </c>
-      <c r="E275" t="n">
-        <v>252</v>
-      </c>
-      <c r="F275" t="n">
-        <v>5.2976</v>
-      </c>
-      <c r="G275" t="n">
-        <v>250.7333333333333</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>250</v>
-      </c>
-      <c r="C276" t="n">
-        <v>251</v>
-      </c>
-      <c r="D276" t="n">
-        <v>251</v>
-      </c>
-      <c r="E276" t="n">
-        <v>248</v>
-      </c>
-      <c r="F276" t="n">
-        <v>349.3654</v>
-      </c>
-      <c r="G276" t="n">
-        <v>250.7666666666667</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>248</v>
-      </c>
-      <c r="C277" t="n">
-        <v>248</v>
-      </c>
-      <c r="D277" t="n">
-        <v>248</v>
-      </c>
-      <c r="E277" t="n">
-        <v>248</v>
-      </c>
-      <c r="F277" t="n">
-        <v>2826.5301</v>
-      </c>
-      <c r="G277" t="n">
-        <v>250.75</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>252</v>
-      </c>
-      <c r="C278" t="n">
-        <v>252</v>
-      </c>
-      <c r="D278" t="n">
-        <v>252</v>
-      </c>
-      <c r="E278" t="n">
-        <v>252</v>
-      </c>
-      <c r="F278" t="n">
-        <v>1</v>
-      </c>
-      <c r="G278" t="n">
-        <v>250.7166666666667</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>251</v>
-      </c>
-      <c r="C279" t="n">
-        <v>251</v>
-      </c>
-      <c r="D279" t="n">
-        <v>251</v>
-      </c>
-      <c r="E279" t="n">
-        <v>251</v>
-      </c>
-      <c r="F279" t="n">
-        <v>10</v>
-      </c>
-      <c r="G279" t="n">
-        <v>250.6666666666667</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>253</v>
-      </c>
-      <c r="C280" t="n">
-        <v>253</v>
-      </c>
-      <c r="D280" t="n">
-        <v>253</v>
-      </c>
-      <c r="E280" t="n">
-        <v>253</v>
-      </c>
-      <c r="F280" t="n">
-        <v>1</v>
-      </c>
-      <c r="G280" t="n">
-        <v>250.65</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>249</v>
-      </c>
-      <c r="C281" t="n">
-        <v>248</v>
-      </c>
-      <c r="D281" t="n">
-        <v>249</v>
-      </c>
-      <c r="E281" t="n">
-        <v>248</v>
-      </c>
-      <c r="F281" t="n">
-        <v>905.8335</v>
-      </c>
-      <c r="G281" t="n">
-        <v>250.5</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>250</v>
-      </c>
-      <c r="C282" t="n">
-        <v>250</v>
-      </c>
-      <c r="D282" t="n">
-        <v>250</v>
-      </c>
-      <c r="E282" t="n">
-        <v>250</v>
-      </c>
-      <c r="F282" t="n">
-        <v>1</v>
-      </c>
-      <c r="G282" t="n">
-        <v>250.4</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>247</v>
-      </c>
-      <c r="C283" t="n">
-        <v>247</v>
-      </c>
-      <c r="D283" t="n">
-        <v>247</v>
-      </c>
-      <c r="E283" t="n">
-        <v>247</v>
-      </c>
-      <c r="F283" t="n">
-        <v>41.6682</v>
-      </c>
-      <c r="G283" t="n">
-        <v>250.25</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>248</v>
-      </c>
-      <c r="C284" t="n">
-        <v>248</v>
-      </c>
-      <c r="D284" t="n">
-        <v>248</v>
-      </c>
-      <c r="E284" t="n">
-        <v>248</v>
-      </c>
-      <c r="F284" t="n">
-        <v>1762</v>
-      </c>
-      <c r="G284" t="n">
-        <v>250.15</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>250</v>
-      </c>
-      <c r="C285" t="n">
-        <v>248</v>
-      </c>
-      <c r="D285" t="n">
-        <v>250</v>
-      </c>
-      <c r="E285" t="n">
-        <v>248</v>
-      </c>
-      <c r="F285" t="n">
-        <v>1323</v>
-      </c>
-      <c r="G285" t="n">
-        <v>250.1166666666667</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>248</v>
-      </c>
-      <c r="C286" t="n">
-        <v>248</v>
-      </c>
-      <c r="D286" t="n">
-        <v>248</v>
-      </c>
-      <c r="E286" t="n">
-        <v>248</v>
-      </c>
-      <c r="F286" t="n">
-        <v>220</v>
-      </c>
-      <c r="G286" t="n">
-        <v>250.0166666666667</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>250</v>
-      </c>
-      <c r="C287" t="n">
-        <v>250</v>
-      </c>
-      <c r="D287" t="n">
-        <v>250</v>
-      </c>
-      <c r="E287" t="n">
-        <v>250</v>
-      </c>
-      <c r="F287" t="n">
-        <v>2</v>
-      </c>
-      <c r="G287" t="n">
-        <v>249.9333333333333</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>247</v>
-      </c>
-      <c r="C288" t="n">
-        <v>247</v>
-      </c>
-      <c r="D288" t="n">
-        <v>247</v>
-      </c>
-      <c r="E288" t="n">
-        <v>247</v>
-      </c>
-      <c r="F288" t="n">
-        <v>690</v>
-      </c>
-      <c r="G288" t="n">
-        <v>249.8833333333333</v>
-      </c>
-      <c r="H288" t="n">
+      <c r="I268" t="n">
         <v>0</v>
       </c>
     </row>
